--- a/data/pca/factorExposure/factorExposure_2010-07-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-09.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01720221464408032</v>
+        <v>-0.01667916625766755</v>
       </c>
       <c r="C2">
-        <v>0.0009461812250407613</v>
+        <v>-0.0009089891301126879</v>
       </c>
       <c r="D2">
-        <v>-0.007541911721758852</v>
+        <v>-0.006950579660616325</v>
       </c>
       <c r="E2">
-        <v>0.004021410382020354</v>
+        <v>0.002413717990354934</v>
       </c>
       <c r="F2">
-        <v>-0.0360150283284316</v>
+        <v>0.01139628024589958</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1202947221669751</v>
+        <v>-0.09525940370435626</v>
       </c>
       <c r="C4">
-        <v>-0.09236762048264444</v>
+        <v>-0.01795662988547731</v>
       </c>
       <c r="D4">
-        <v>-0.007216005340403404</v>
+        <v>-0.07777028523769702</v>
       </c>
       <c r="E4">
-        <v>-0.154527789975661</v>
+        <v>-0.02777514908321988</v>
       </c>
       <c r="F4">
-        <v>-0.07001919954950264</v>
+        <v>-0.04050962288562502</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1283011548030763</v>
+        <v>-0.1516671173730476</v>
       </c>
       <c r="C6">
-        <v>-0.06875594615269615</v>
+        <v>-0.02440319803820394</v>
       </c>
       <c r="D6">
-        <v>0.01041662903928332</v>
+        <v>0.01864518084166387</v>
       </c>
       <c r="E6">
-        <v>-0.06660600509531836</v>
+        <v>-0.01231109917095785</v>
       </c>
       <c r="F6">
-        <v>-0.02113581924580826</v>
+        <v>-0.0394830043477266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06994590106778584</v>
+        <v>-0.06299434055472378</v>
       </c>
       <c r="C7">
-        <v>-0.08483407839184026</v>
+        <v>-0.0005616883739013648</v>
       </c>
       <c r="D7">
-        <v>-0.007416489649417138</v>
+        <v>-0.05141038901906488</v>
       </c>
       <c r="E7">
-        <v>-0.01903168818366608</v>
+        <v>-0.01376195543963878</v>
       </c>
       <c r="F7">
-        <v>0.003296798119967318</v>
+        <v>-0.0559128464003404</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04044615303708643</v>
+        <v>-0.05982661930407324</v>
       </c>
       <c r="C8">
-        <v>-0.009411372059674173</v>
+        <v>0.01275856529260162</v>
       </c>
       <c r="D8">
-        <v>-0.01432907748214612</v>
+        <v>-0.02657883887187687</v>
       </c>
       <c r="E8">
-        <v>-0.08332552814316463</v>
+        <v>-0.01030090671270711</v>
       </c>
       <c r="F8">
-        <v>-0.07762327449442209</v>
+        <v>0.02058244289382768</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08716782520313467</v>
+        <v>-0.0728716220451808</v>
       </c>
       <c r="C9">
-        <v>-0.06240649443858243</v>
+        <v>-0.01459891371904908</v>
       </c>
       <c r="D9">
-        <v>0.006646895885996372</v>
+        <v>-0.07564793758319825</v>
       </c>
       <c r="E9">
-        <v>-0.1178904115684631</v>
+        <v>-0.02060076101075135</v>
       </c>
       <c r="F9">
-        <v>-0.05440571631577434</v>
+        <v>-0.06147197389431178</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1270795708277812</v>
+        <v>-0.09121250291747422</v>
       </c>
       <c r="C10">
-        <v>0.1828363159686926</v>
+        <v>-0.01343447456927616</v>
       </c>
       <c r="D10">
-        <v>-0.01618202474308863</v>
+        <v>0.1736202755433359</v>
       </c>
       <c r="E10">
-        <v>0.04119712375102638</v>
+        <v>0.03359286288494983</v>
       </c>
       <c r="F10">
-        <v>0.0370164989258979</v>
+        <v>0.05063078230034265</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0653230072624356</v>
+        <v>-0.08879143174916609</v>
       </c>
       <c r="C11">
-        <v>-0.05632101199228083</v>
+        <v>-0.01369856721710771</v>
       </c>
       <c r="D11">
-        <v>0.0438631896335861</v>
+        <v>-0.1065166678805094</v>
       </c>
       <c r="E11">
-        <v>-0.09098043209870377</v>
+        <v>-0.04042605542444705</v>
       </c>
       <c r="F11">
-        <v>-0.03980617452693368</v>
+        <v>-0.02776322554255203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07447983781791584</v>
+        <v>-0.0940034303643551</v>
       </c>
       <c r="C12">
-        <v>-0.0661313806956433</v>
+        <v>-0.01130400465944944</v>
       </c>
       <c r="D12">
-        <v>0.05530693627368553</v>
+        <v>-0.1118164008127834</v>
       </c>
       <c r="E12">
-        <v>-0.1310159635209598</v>
+        <v>-0.03892116881874267</v>
       </c>
       <c r="F12">
-        <v>-0.01188758010136647</v>
+        <v>-0.03036848354229979</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04263461311603733</v>
+        <v>-0.04383274102543831</v>
       </c>
       <c r="C13">
-        <v>-0.04027393106193558</v>
+        <v>-0.004311678999079169</v>
       </c>
       <c r="D13">
-        <v>-0.02386213024047671</v>
+        <v>-0.03775346462365804</v>
       </c>
       <c r="E13">
-        <v>-0.04983835171413858</v>
+        <v>0.01429933043316182</v>
       </c>
       <c r="F13">
-        <v>-0.02143830137229743</v>
+        <v>-0.02122480339625949</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04833634896508711</v>
+        <v>-0.02221394817443137</v>
       </c>
       <c r="C14">
-        <v>-0.03060673582720834</v>
+        <v>-0.01514266014935456</v>
       </c>
       <c r="D14">
-        <v>0.002782352754641687</v>
+        <v>-0.02685298693332607</v>
       </c>
       <c r="E14">
-        <v>-0.04682398764977513</v>
+        <v>-0.01550316690932726</v>
       </c>
       <c r="F14">
-        <v>-0.01780182402351487</v>
+        <v>-0.02608376814281317</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0274918387633892</v>
+        <v>-0.03257639857289375</v>
       </c>
       <c r="C15">
-        <v>-0.01666626840166655</v>
+        <v>-0.00606550928205378</v>
       </c>
       <c r="D15">
-        <v>-0.07374374116053045</v>
+        <v>-0.03848619018958809</v>
       </c>
       <c r="E15">
-        <v>-0.0007424544653035986</v>
+        <v>-0.007319287401816644</v>
       </c>
       <c r="F15">
-        <v>-0.03477733859077361</v>
+        <v>-0.0348952166978377</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07856996781476303</v>
+        <v>-0.07602684287451394</v>
       </c>
       <c r="C16">
-        <v>-0.07235765851282777</v>
+        <v>-0.005342596782869837</v>
       </c>
       <c r="D16">
-        <v>0.03998198759144798</v>
+        <v>-0.1097163355594667</v>
       </c>
       <c r="E16">
-        <v>-0.1055273142880879</v>
+        <v>-0.05647021033760017</v>
       </c>
       <c r="F16">
-        <v>-0.01467952659193935</v>
+        <v>-0.0356536411325659</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01619336469549916</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004385201682623699</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02460961855173372</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01123551039221218</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0296128938493508</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04448953105364712</v>
+        <v>-0.0617427575217397</v>
       </c>
       <c r="C20">
-        <v>-0.02375211685074144</v>
+        <v>-0.003188571553194131</v>
       </c>
       <c r="D20">
-        <v>-0.03596660321496344</v>
+        <v>-0.06498090428941614</v>
       </c>
       <c r="E20">
-        <v>-0.07181589736352761</v>
+        <v>-0.04971466042082916</v>
       </c>
       <c r="F20">
-        <v>-0.002225921489069374</v>
+        <v>-0.03253635217710138</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03044544265244989</v>
+        <v>-0.03758593912479984</v>
       </c>
       <c r="C21">
-        <v>-0.0217144266818441</v>
+        <v>-0.008163685820287663</v>
       </c>
       <c r="D21">
-        <v>0.01008484992430063</v>
+        <v>-0.03465590892404006</v>
       </c>
       <c r="E21">
-        <v>-0.04323973796604207</v>
+        <v>0.01287275680154761</v>
       </c>
       <c r="F21">
-        <v>-0.02619768880000928</v>
+        <v>0.01671239326825621</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05524639176386584</v>
+        <v>-0.04271835944983331</v>
       </c>
       <c r="C22">
-        <v>-0.02542472245998567</v>
+        <v>-0.001012288646996592</v>
       </c>
       <c r="D22">
-        <v>-0.6485739396773603</v>
+        <v>0.001205845595162624</v>
       </c>
       <c r="E22">
-        <v>-0.007298507714635171</v>
+        <v>-0.03442302181582591</v>
       </c>
       <c r="F22">
-        <v>0.1263604733217822</v>
+        <v>0.02653053581576209</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05581374947623909</v>
+        <v>-0.04275562202227316</v>
       </c>
       <c r="C23">
-        <v>-0.02660422089917429</v>
+        <v>-0.001035043535778985</v>
       </c>
       <c r="D23">
-        <v>-0.6507305766271694</v>
+        <v>0.001031597030623622</v>
       </c>
       <c r="E23">
-        <v>-0.01201019954158628</v>
+        <v>-0.03478420728051041</v>
       </c>
       <c r="F23">
-        <v>0.1247116819542323</v>
+        <v>0.02595556745477682</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07747009371258808</v>
+        <v>-0.08192897720397588</v>
       </c>
       <c r="C24">
-        <v>-0.06985625928370047</v>
+        <v>-0.005281801382835198</v>
       </c>
       <c r="D24">
-        <v>0.03393240930150188</v>
+        <v>-0.1114848733283323</v>
       </c>
       <c r="E24">
-        <v>-0.1040272340898044</v>
+        <v>-0.04418762009192947</v>
       </c>
       <c r="F24">
-        <v>-0.01846880536798429</v>
+        <v>-0.02796905888828111</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07463802057813582</v>
+        <v>-0.08662663168292355</v>
       </c>
       <c r="C25">
-        <v>-0.05118495278896685</v>
+        <v>-0.007677084591439522</v>
       </c>
       <c r="D25">
-        <v>0.05438153253605971</v>
+        <v>-0.09606582256307634</v>
       </c>
       <c r="E25">
-        <v>-0.1110216021466375</v>
+        <v>-0.02581695415268099</v>
       </c>
       <c r="F25">
-        <v>-0.02214605054498824</v>
+        <v>-0.03738652296642557</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04244870000489617</v>
+        <v>-0.05701114214057196</v>
       </c>
       <c r="C26">
-        <v>-0.01677493313297991</v>
+        <v>-0.01524825264040917</v>
       </c>
       <c r="D26">
-        <v>-0.01503733070310632</v>
+        <v>-0.0264352881238108</v>
       </c>
       <c r="E26">
-        <v>-0.07961194682738353</v>
+        <v>-0.02412322973458542</v>
       </c>
       <c r="F26">
-        <v>0.04149461620503356</v>
+        <v>-0.001447758387864657</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1527598179549094</v>
+        <v>-0.137426864011898</v>
       </c>
       <c r="C28">
-        <v>0.2759154817016662</v>
+        <v>-0.01070754617974231</v>
       </c>
       <c r="D28">
-        <v>0.003912360423349496</v>
+        <v>0.2764456399746262</v>
       </c>
       <c r="E28">
-        <v>-0.01402761567809547</v>
+        <v>0.06550912705980862</v>
       </c>
       <c r="F28">
-        <v>0.0005871741909214915</v>
+        <v>-0.0460446507547809</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04250555642372807</v>
+        <v>-0.02742840541913683</v>
       </c>
       <c r="C29">
-        <v>-0.02739894897138116</v>
+        <v>-0.009347380624857848</v>
       </c>
       <c r="D29">
-        <v>0.00573166881416988</v>
+        <v>-0.02554141237576022</v>
       </c>
       <c r="E29">
-        <v>-0.04189878133321647</v>
+        <v>-0.008446136216416449</v>
       </c>
       <c r="F29">
-        <v>-0.01384837596823865</v>
+        <v>0.007402144479322656</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08528110688870123</v>
+        <v>-0.06601999363204265</v>
       </c>
       <c r="C30">
-        <v>-0.05347502583573331</v>
+        <v>-0.008089153315794241</v>
       </c>
       <c r="D30">
-        <v>0.01237793255389569</v>
+        <v>-0.07300671395620631</v>
       </c>
       <c r="E30">
-        <v>-0.2748712846769817</v>
+        <v>-0.02017319353183308</v>
       </c>
       <c r="F30">
-        <v>0.06120556285762272</v>
+        <v>-0.1245080989610608</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03023215056087505</v>
+        <v>-0.0484030753649974</v>
       </c>
       <c r="C31">
-        <v>-0.05606985908341961</v>
+        <v>-0.01520985001826834</v>
       </c>
       <c r="D31">
-        <v>-0.004442797654429307</v>
+        <v>-0.02980327188857004</v>
       </c>
       <c r="E31">
-        <v>-0.03747041770939635</v>
+        <v>-0.02623740887918577</v>
       </c>
       <c r="F31">
-        <v>-0.02031149826252306</v>
+        <v>0.002155157685230377</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05567515211671038</v>
+        <v>-0.04824223683770853</v>
       </c>
       <c r="C32">
-        <v>-0.001932007958065138</v>
+        <v>-0.001015518143423717</v>
       </c>
       <c r="D32">
-        <v>0.03973836355340154</v>
+        <v>-0.02359249493521713</v>
       </c>
       <c r="E32">
-        <v>-0.02239419180495203</v>
+        <v>-0.02355002287081894</v>
       </c>
       <c r="F32">
-        <v>-0.1042185373484849</v>
+        <v>-0.006230207648128218</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09300322623011516</v>
+        <v>-0.09213085942470467</v>
       </c>
       <c r="C33">
-        <v>-0.06604840457602194</v>
+        <v>-0.01084927854162427</v>
       </c>
       <c r="D33">
-        <v>0.01865315438937232</v>
+        <v>-0.08665606190982725</v>
       </c>
       <c r="E33">
-        <v>-0.07421874983580556</v>
+        <v>-0.04237245845463263</v>
       </c>
       <c r="F33">
-        <v>-0.004959854081831392</v>
+        <v>-0.04368841748959996</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06679349062942093</v>
+        <v>-0.06927158607921</v>
       </c>
       <c r="C34">
-        <v>-0.05173411041482461</v>
+        <v>-0.01315731910566074</v>
       </c>
       <c r="D34">
-        <v>0.04847977591570858</v>
+        <v>-0.08987610267986912</v>
       </c>
       <c r="E34">
-        <v>-0.08923553497411579</v>
+        <v>-0.02714588712323027</v>
       </c>
       <c r="F34">
-        <v>-0.02153687353392171</v>
+        <v>-0.05284843840653299</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02146085714524671</v>
+        <v>-0.02431164752882819</v>
       </c>
       <c r="C35">
-        <v>-0.02086322736597299</v>
+        <v>-0.002541658665671335</v>
       </c>
       <c r="D35">
-        <v>-0.0006616808060714514</v>
+        <v>-0.009373713024787386</v>
       </c>
       <c r="E35">
-        <v>-0.01512217273552757</v>
+        <v>-0.01179955537461122</v>
       </c>
       <c r="F35">
-        <v>0.007016483744020182</v>
+        <v>-0.01291568799813394</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02958811062162353</v>
+        <v>-0.02639194262860763</v>
       </c>
       <c r="C36">
-        <v>-0.02075663834176932</v>
+        <v>-0.00708953161146909</v>
       </c>
       <c r="D36">
-        <v>-0.01775753571717886</v>
+        <v>-0.03827472794992032</v>
       </c>
       <c r="E36">
-        <v>-0.08661600516597162</v>
+        <v>-0.01620251421866382</v>
       </c>
       <c r="F36">
-        <v>-0.00666017363009294</v>
+        <v>-0.01336889975339954</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02678654898962513</v>
+        <v>-0.003230854577112266</v>
       </c>
       <c r="C38">
-        <v>-0.05496684813507522</v>
+        <v>-0.0006128594632270124</v>
       </c>
       <c r="D38">
-        <v>-0.02222783955861102</v>
+        <v>-0.003665982758934799</v>
       </c>
       <c r="E38">
-        <v>0.08599161130042418</v>
+        <v>-0.004484769626020526</v>
       </c>
       <c r="F38">
-        <v>0.1013005588576096</v>
+        <v>0.003426654004247691</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.0954275847110071</v>
+        <v>-0.1119621976842584</v>
       </c>
       <c r="C39">
-        <v>-0.07738604496435031</v>
+        <v>-0.01950663792583484</v>
       </c>
       <c r="D39">
-        <v>0.1231735881273574</v>
+        <v>-0.144791964421571</v>
       </c>
       <c r="E39">
-        <v>-0.1732582537796631</v>
+        <v>-0.04849340900610132</v>
       </c>
       <c r="F39">
-        <v>0.07134275376872977</v>
+        <v>-0.03952294180088084</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0261992502783205</v>
+        <v>-0.03737018194545694</v>
       </c>
       <c r="C40">
-        <v>-0.06041569137318987</v>
+        <v>-0.007717966182376479</v>
       </c>
       <c r="D40">
-        <v>-0.02480705519588258</v>
+        <v>-0.0256145365967064</v>
       </c>
       <c r="E40">
-        <v>-0.04260160447154749</v>
+        <v>-0.002373970428131133</v>
       </c>
       <c r="F40">
-        <v>-0.08231180088766969</v>
+        <v>0.01624142313974643</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03121188325658436</v>
+        <v>-0.0263237349361153</v>
       </c>
       <c r="C41">
-        <v>-0.02534886153659888</v>
+        <v>-0.006812699460481566</v>
       </c>
       <c r="D41">
-        <v>0.02420556556940431</v>
+        <v>-0.0119887106429471</v>
       </c>
       <c r="E41">
-        <v>-0.007753647651917536</v>
+        <v>-0.01066922675228383</v>
       </c>
       <c r="F41">
-        <v>0.02051839011388393</v>
+        <v>0.0120945958752278</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04622532904955759</v>
+        <v>-0.04305197863135426</v>
       </c>
       <c r="C43">
-        <v>-0.04788396559924608</v>
+        <v>-0.007121055458889226</v>
       </c>
       <c r="D43">
-        <v>-0.009396542961088919</v>
+        <v>-0.02201915395947534</v>
       </c>
       <c r="E43">
-        <v>-0.03281648116380278</v>
+        <v>-0.02560323505661945</v>
       </c>
       <c r="F43">
-        <v>0.0451861564807528</v>
+        <v>0.01146628972442282</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09496189576347977</v>
+        <v>-0.07381890652301598</v>
       </c>
       <c r="C44">
-        <v>-0.07805748880834236</v>
+        <v>-0.02379825541268976</v>
       </c>
       <c r="D44">
-        <v>-0.06607226886156879</v>
+        <v>-0.09512784774797231</v>
       </c>
       <c r="E44">
-        <v>-0.1022826530589845</v>
+        <v>-0.06312231625530476</v>
       </c>
       <c r="F44">
-        <v>-0.07750469242818685</v>
+        <v>-0.1841299573384777</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04036537420744675</v>
+        <v>-0.02377220790257705</v>
       </c>
       <c r="C46">
-        <v>-0.03765308788340423</v>
+        <v>-0.00412791456679526</v>
       </c>
       <c r="D46">
-        <v>-0.05209021941420083</v>
+        <v>-0.009320922152520795</v>
       </c>
       <c r="E46">
-        <v>-0.01483195035805998</v>
+        <v>-0.02326220452430897</v>
       </c>
       <c r="F46">
-        <v>-0.02737408942954275</v>
+        <v>0.005265704766280366</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0532731208066724</v>
+        <v>-0.05308554935030339</v>
       </c>
       <c r="C47">
-        <v>-0.04299439164703956</v>
+        <v>-0.003524505936748506</v>
       </c>
       <c r="D47">
-        <v>-0.004307644399632961</v>
+        <v>-0.01340457182940456</v>
       </c>
       <c r="E47">
-        <v>-0.02362773766546041</v>
+        <v>-0.02246370064411837</v>
       </c>
       <c r="F47">
-        <v>0.01638625629734381</v>
+        <v>0.04751414885888063</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04704750592589524</v>
+        <v>-0.04824987276093991</v>
       </c>
       <c r="C48">
-        <v>-0.01673251612827725</v>
+        <v>-0.003339100670923931</v>
       </c>
       <c r="D48">
-        <v>0.007469719943897916</v>
+        <v>-0.04122764533164383</v>
       </c>
       <c r="E48">
-        <v>-0.08520720316321098</v>
+        <v>0.008631918787746162</v>
       </c>
       <c r="F48">
-        <v>-0.04912241994643301</v>
+        <v>-0.01888905216487131</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2382059923235191</v>
+        <v>-0.2075961282270865</v>
       </c>
       <c r="C49">
-        <v>-0.06380606990153688</v>
+        <v>-0.01721037780882494</v>
       </c>
       <c r="D49">
-        <v>0.04350078469187083</v>
+        <v>0.004486895880193614</v>
       </c>
       <c r="E49">
-        <v>0.2746458259484991</v>
+        <v>-0.04244406805311189</v>
       </c>
       <c r="F49">
-        <v>0.07778232766263761</v>
+        <v>-0.03421747294417101</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03718066780633354</v>
+        <v>-0.04866003572006032</v>
       </c>
       <c r="C50">
-        <v>-0.04644853284045086</v>
+        <v>-0.01137896105519283</v>
       </c>
       <c r="D50">
-        <v>0.009805441855703463</v>
+        <v>-0.02856800444857435</v>
       </c>
       <c r="E50">
-        <v>-0.06638155465363227</v>
+        <v>-0.02827343488656338</v>
       </c>
       <c r="F50">
-        <v>0.00774525669062402</v>
+        <v>-0.006384888005866582</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03318999462727054</v>
+        <v>-0.003762620451666024</v>
       </c>
       <c r="C51">
-        <v>-0.004498579189035478</v>
+        <v>-0.0008816561531464202</v>
       </c>
       <c r="D51">
-        <v>0.002398501249974057</v>
+        <v>0.001365159805706445</v>
       </c>
       <c r="E51">
-        <v>0.05379039592661967</v>
+        <v>-0.001807105052537857</v>
       </c>
       <c r="F51">
-        <v>0.005148107502870067</v>
+        <v>-0.004119140776429706</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.01777837233467436</v>
+        <v>-0.1406022050913259</v>
       </c>
       <c r="C52">
-        <v>-0.006734873556060911</v>
+        <v>-0.01256939404528147</v>
       </c>
       <c r="D52">
-        <v>0.02395028480764461</v>
+        <v>-0.05145602646404555</v>
       </c>
       <c r="E52">
-        <v>-0.004146948637820716</v>
+        <v>-0.01455463460915964</v>
       </c>
       <c r="F52">
-        <v>0.005230446365952567</v>
+        <v>-0.03037573546041399</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.146572828763307</v>
+        <v>-0.1725327652595296</v>
       </c>
       <c r="C53">
-        <v>-0.05898400255841815</v>
+        <v>-0.0153515159707992</v>
       </c>
       <c r="D53">
-        <v>-0.01119609344825811</v>
+        <v>-0.02047945814146858</v>
       </c>
       <c r="E53">
-        <v>0.06201404838099411</v>
+        <v>-0.03817522867824027</v>
       </c>
       <c r="F53">
-        <v>0.08979174655044501</v>
+        <v>-0.05706345350556787</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06105813454845865</v>
+        <v>-0.02215546152085648</v>
       </c>
       <c r="C54">
-        <v>-0.03160408386549605</v>
+        <v>-0.01304871280902676</v>
       </c>
       <c r="D54">
-        <v>-0.01388001765727455</v>
+        <v>-0.02774588989037832</v>
       </c>
       <c r="E54">
-        <v>-0.1252050472385381</v>
+        <v>-0.01536620898565132</v>
       </c>
       <c r="F54">
-        <v>-0.0678800599777231</v>
+        <v>-0.0006468873937023326</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08068503103919505</v>
+        <v>-0.1139877280514188</v>
       </c>
       <c r="C55">
-        <v>-0.04776096246724781</v>
+        <v>-0.01433239406968683</v>
       </c>
       <c r="D55">
-        <v>0.02982420151904955</v>
+        <v>-0.01797256926103046</v>
       </c>
       <c r="E55">
-        <v>0.0140744525507696</v>
+        <v>-0.02939499735155859</v>
       </c>
       <c r="F55">
-        <v>0.01977652290858278</v>
+        <v>-0.04684816415081099</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1393888329054749</v>
+        <v>-0.1771841209804624</v>
       </c>
       <c r="C56">
-        <v>-0.09352532753953113</v>
+        <v>-0.01290675041906299</v>
       </c>
       <c r="D56">
-        <v>0.01863180742925918</v>
+        <v>-0.0178856797278189</v>
       </c>
       <c r="E56">
-        <v>0.02935623445238743</v>
+        <v>-0.04240062606412572</v>
       </c>
       <c r="F56">
-        <v>0.06032701638575971</v>
+        <v>-0.02634344810733385</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03480239667650209</v>
+        <v>-0.04702888256943548</v>
       </c>
       <c r="C58">
-        <v>-0.02848148355852773</v>
+        <v>-0.00357729072486339</v>
       </c>
       <c r="D58">
-        <v>-0.03224496946971361</v>
+        <v>-0.06132269225014089</v>
       </c>
       <c r="E58">
-        <v>-0.04550828305785921</v>
+        <v>-0.01324512653955067</v>
       </c>
       <c r="F58">
-        <v>0.01039624593116103</v>
+        <v>0.04303901261472879</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2143636142797255</v>
+        <v>-0.1701714936359735</v>
       </c>
       <c r="C59">
-        <v>0.242633309106597</v>
+        <v>-0.01274202581688451</v>
       </c>
       <c r="D59">
-        <v>0.04875084565128893</v>
+        <v>0.2330988343086256</v>
       </c>
       <c r="E59">
-        <v>0.02706841376892056</v>
+        <v>0.04640966017281525</v>
       </c>
       <c r="F59">
-        <v>-0.03304614357226966</v>
+        <v>0.03086288696355428</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2376211580378108</v>
+        <v>-0.2402510095793224</v>
       </c>
       <c r="C60">
-        <v>-0.143455208107603</v>
+        <v>0.004241560506739118</v>
       </c>
       <c r="D60">
-        <v>0.08112252043073437</v>
+        <v>-0.05679659084993231</v>
       </c>
       <c r="E60">
-        <v>0.1083633652993338</v>
+        <v>-0.01200575197887036</v>
       </c>
       <c r="F60">
-        <v>0.01100985668281789</v>
+        <v>0.04547995329279104</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09182923226123629</v>
+        <v>-0.08589585215160207</v>
       </c>
       <c r="C61">
-        <v>-0.06537117417549308</v>
+        <v>-0.01489646818396043</v>
       </c>
       <c r="D61">
-        <v>0.06813233375857615</v>
+        <v>-0.1041523438874599</v>
       </c>
       <c r="E61">
-        <v>-0.1441306101967104</v>
+        <v>-0.03345345939436919</v>
       </c>
       <c r="F61">
-        <v>0.0198323908126198</v>
+        <v>-0.02541751076479773</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1298496455300931</v>
+        <v>-0.1683507094167958</v>
       </c>
       <c r="C62">
-        <v>-0.07627800467479931</v>
+        <v>-0.01676613637416805</v>
       </c>
       <c r="D62">
-        <v>0.004496898834468297</v>
+        <v>-0.01644969626518528</v>
       </c>
       <c r="E62">
-        <v>0.05280920502965835</v>
+        <v>-0.03744181354504235</v>
       </c>
       <c r="F62">
-        <v>0.06295333100086731</v>
+        <v>-0.01227570147130791</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0445833861181381</v>
+        <v>-0.04290314753018242</v>
       </c>
       <c r="C63">
-        <v>-0.01796654626660701</v>
+        <v>-0.004476645049471676</v>
       </c>
       <c r="D63">
-        <v>0.008733937333069968</v>
+        <v>-0.04483651689808422</v>
       </c>
       <c r="E63">
-        <v>-0.07007756657718597</v>
+        <v>-0.01361177454297917</v>
       </c>
       <c r="F63">
-        <v>0.00971029622902639</v>
+        <v>-0.01277583448946546</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09832346004926805</v>
+        <v>-0.1122452673097364</v>
       </c>
       <c r="C64">
-        <v>-0.05785844596430446</v>
+        <v>-0.01212396994874351</v>
       </c>
       <c r="D64">
-        <v>-0.0003526546541350913</v>
+        <v>-0.03733322229490169</v>
       </c>
       <c r="E64">
-        <v>-0.07067236058510995</v>
+        <v>-0.0187220617327333</v>
       </c>
       <c r="F64">
-        <v>0.01940715813392987</v>
+        <v>-0.0172550564170619</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1209112316428005</v>
+        <v>-0.1426166657527238</v>
       </c>
       <c r="C65">
-        <v>-0.04053258496363876</v>
+        <v>-0.03075471658453547</v>
       </c>
       <c r="D65">
-        <v>0.02207503351651556</v>
+        <v>0.04518879638122027</v>
       </c>
       <c r="E65">
-        <v>-0.09907797978137389</v>
+        <v>-0.0029410540368642</v>
       </c>
       <c r="F65">
-        <v>-0.0002543937484702281</v>
+        <v>-0.04174834496291514</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1070136462034178</v>
+        <v>-0.1342162450873898</v>
       </c>
       <c r="C66">
-        <v>-0.1140300437716708</v>
+        <v>-0.01712153793793338</v>
       </c>
       <c r="D66">
-        <v>0.1184052627034491</v>
+        <v>-0.1311822990511894</v>
       </c>
       <c r="E66">
-        <v>-0.1554165121100045</v>
+        <v>-0.05823039540450192</v>
       </c>
       <c r="F66">
-        <v>0.06859727128794062</v>
+        <v>-0.04479705736927943</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08288378024780693</v>
+        <v>-0.06554658732099074</v>
       </c>
       <c r="C67">
-        <v>-0.06681676142187896</v>
+        <v>-0.004421188537027473</v>
       </c>
       <c r="D67">
-        <v>-0.02219176511475336</v>
+        <v>-0.05636957686892918</v>
       </c>
       <c r="E67">
-        <v>0.06157129419153221</v>
+        <v>-0.01899829470540891</v>
       </c>
       <c r="F67">
-        <v>0.1248027742229808</v>
+        <v>0.04318988555403191</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1298505668281102</v>
+        <v>-0.1109927513845378</v>
       </c>
       <c r="C68">
-        <v>0.272101638002371</v>
+        <v>-0.0216894466738241</v>
       </c>
       <c r="D68">
-        <v>0.01619445227504345</v>
+        <v>0.2747552831377822</v>
       </c>
       <c r="E68">
-        <v>-0.04381496965606221</v>
+        <v>0.08411322301952771</v>
       </c>
       <c r="F68">
-        <v>0.01381196828951277</v>
+        <v>-0.05043618674410272</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04295881299066188</v>
+        <v>-0.0405542630090802</v>
       </c>
       <c r="C69">
-        <v>-0.01856938192191434</v>
+        <v>-0.00114429517898082</v>
       </c>
       <c r="D69">
-        <v>-0.0107799054128738</v>
+        <v>-0.00902652000206457</v>
       </c>
       <c r="E69">
-        <v>-0.01213130247012175</v>
+        <v>-0.02607612086216065</v>
       </c>
       <c r="F69">
-        <v>0.04114764334254777</v>
+        <v>0.01659320281999881</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05221339576486106</v>
+        <v>-0.06455904636151842</v>
       </c>
       <c r="C70">
-        <v>-0.05633910169982882</v>
+        <v>0.027140802057699</v>
       </c>
       <c r="D70">
-        <v>0.02556172585977805</v>
+        <v>-0.009708943011558502</v>
       </c>
       <c r="E70">
-        <v>-0.05965209435583964</v>
+        <v>0.04255724478903677</v>
       </c>
       <c r="F70">
-        <v>0.0014772598701159</v>
+        <v>0.3389204835397975</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1472888244291335</v>
+        <v>-0.1298128894593863</v>
       </c>
       <c r="C71">
-        <v>0.2786711685227693</v>
+        <v>-0.02539013136673662</v>
       </c>
       <c r="D71">
-        <v>0.01035771587078498</v>
+        <v>0.2906607797125048</v>
       </c>
       <c r="E71">
-        <v>-0.05490309237373413</v>
+        <v>0.09198051989583668</v>
       </c>
       <c r="F71">
-        <v>0.0181044270174614</v>
+        <v>-0.05269020391378037</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.127722375334018</v>
+        <v>-0.1385561850662603</v>
       </c>
       <c r="C72">
-        <v>-0.02714851928065474</v>
+        <v>-0.02394583796392497</v>
       </c>
       <c r="D72">
-        <v>0.007235069262577833</v>
+        <v>-0.00991064118002344</v>
       </c>
       <c r="E72">
-        <v>-0.04348531831877941</v>
+        <v>-0.04202045235513047</v>
       </c>
       <c r="F72">
-        <v>0.05449730559831591</v>
+        <v>-0.02494579973466699</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2255340057285481</v>
+        <v>-0.2099355916442738</v>
       </c>
       <c r="C73">
-        <v>-0.1303345953400931</v>
+        <v>-0.01175339155711977</v>
       </c>
       <c r="D73">
-        <v>0.1547805797677735</v>
+        <v>-0.0261817617158452</v>
       </c>
       <c r="E73">
-        <v>0.4707115062810798</v>
+        <v>-0.07125692400240419</v>
       </c>
       <c r="F73">
-        <v>0.1881658899907271</v>
+        <v>-0.0213270227406696</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08732604224017762</v>
+        <v>-0.09369482506649224</v>
       </c>
       <c r="C74">
-        <v>-0.0866538314108319</v>
+        <v>-0.01182776987434671</v>
       </c>
       <c r="D74">
-        <v>0.007463001962910216</v>
+        <v>-0.02869696684075834</v>
       </c>
       <c r="E74">
-        <v>0.03058242204557657</v>
+        <v>-0.05117654032339655</v>
       </c>
       <c r="F74">
-        <v>0.09712195982174097</v>
+        <v>-0.04055531781478477</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08629600177962013</v>
+        <v>-0.1296282998298402</v>
       </c>
       <c r="C75">
-        <v>-0.06378737144739209</v>
+        <v>-0.0260343771559845</v>
       </c>
       <c r="D75">
-        <v>0.00503486335157554</v>
+        <v>-0.03863035855043745</v>
       </c>
       <c r="E75">
-        <v>-0.00917158926298451</v>
+        <v>-0.05862935478257671</v>
       </c>
       <c r="F75">
-        <v>0.01040904119203961</v>
+        <v>-0.006914912666836756</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07856998770296079</v>
+        <v>-0.009228111473701889</v>
       </c>
       <c r="C76">
-        <v>-0.07754450667371901</v>
+        <v>-0.002040520112688885</v>
       </c>
       <c r="D76">
-        <v>-0.002338505713605787</v>
+        <v>-0.004136569994305772</v>
       </c>
       <c r="E76">
-        <v>0.05391367971549392</v>
+        <v>-0.009428817644364316</v>
       </c>
       <c r="F76">
-        <v>0.0311646393811453</v>
+        <v>-0.002559636844497313</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06942103629172038</v>
+        <v>-0.08101092616480135</v>
       </c>
       <c r="C77">
-        <v>-0.01209978536666172</v>
+        <v>-0.01190324096895921</v>
       </c>
       <c r="D77">
-        <v>0.04039006786868723</v>
+        <v>-0.09823563560509287</v>
       </c>
       <c r="E77">
-        <v>-0.2057682109470328</v>
+        <v>-0.02981161053926305</v>
       </c>
       <c r="F77">
-        <v>-0.1147631211143588</v>
+        <v>-0.04022785328032747</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1840058106855396</v>
+        <v>-0.1102596005058925</v>
       </c>
       <c r="C78">
-        <v>-0.1440819664053377</v>
+        <v>-0.04437179692325947</v>
       </c>
       <c r="D78">
-        <v>-0.1677326439378997</v>
+        <v>-0.1159408279632132</v>
       </c>
       <c r="E78">
-        <v>0.01957060119689347</v>
+        <v>-0.08926508865091541</v>
       </c>
       <c r="F78">
-        <v>-0.6579005433494801</v>
+        <v>-0.07709731268360936</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1284652348456052</v>
+        <v>-0.1621132341406827</v>
       </c>
       <c r="C79">
-        <v>-0.07801681391464345</v>
+        <v>-0.02002171311816357</v>
       </c>
       <c r="D79">
-        <v>-0.008694833004935501</v>
+        <v>-0.02359152768713263</v>
       </c>
       <c r="E79">
-        <v>0.01256850634202418</v>
+        <v>-0.0485291829467325</v>
       </c>
       <c r="F79">
-        <v>0.0413233064100349</v>
+        <v>-0.004611416046507803</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06889292762372699</v>
+        <v>-0.07991820845805861</v>
       </c>
       <c r="C80">
-        <v>-0.04117497618708647</v>
+        <v>0.001532024852733078</v>
       </c>
       <c r="D80">
-        <v>0.07569442124824358</v>
+        <v>-0.0532718744512253</v>
       </c>
       <c r="E80">
-        <v>-0.05759563698453678</v>
+        <v>-0.02792907436536434</v>
       </c>
       <c r="F80">
-        <v>0.0535318817770155</v>
+        <v>0.01072985122494358</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1213984271481408</v>
+        <v>-0.1218825005385015</v>
       </c>
       <c r="C81">
-        <v>-0.04993117338991464</v>
+        <v>-0.02982527972751273</v>
       </c>
       <c r="D81">
-        <v>-0.01188824695113743</v>
+        <v>-0.0278615196314684</v>
       </c>
       <c r="E81">
-        <v>-0.0595620244443673</v>
+        <v>-0.05796925638628659</v>
       </c>
       <c r="F81">
-        <v>0.03058653361757184</v>
+        <v>0.003975515999395698</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1185486040498844</v>
+        <v>-0.1620243448750137</v>
       </c>
       <c r="C82">
-        <v>-0.05666669185595887</v>
+        <v>-0.02041440325053891</v>
       </c>
       <c r="D82">
-        <v>0.004819816339896582</v>
+        <v>-0.02327268271240438</v>
       </c>
       <c r="E82">
-        <v>-0.004326347908323617</v>
+        <v>-0.03453304175139083</v>
       </c>
       <c r="F82">
-        <v>0.09811683924962175</v>
+        <v>-0.05117609522278847</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08050995614861407</v>
+        <v>-0.06648473250836262</v>
       </c>
       <c r="C83">
-        <v>-0.07843635766077581</v>
+        <v>-0.004010172878737553</v>
       </c>
       <c r="D83">
-        <v>0.007593617772468548</v>
+        <v>-0.04609382120667037</v>
       </c>
       <c r="E83">
-        <v>-0.0363271612862405</v>
+        <v>-0.00377395690545732</v>
       </c>
       <c r="F83">
-        <v>0.09825285484444055</v>
+        <v>0.03112493592253424</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04763777109365087</v>
+        <v>-0.06080100902234829</v>
       </c>
       <c r="C84">
-        <v>0.05295287068482845</v>
+        <v>-0.01181935903723354</v>
       </c>
       <c r="D84">
-        <v>0.04109082757257337</v>
+        <v>-0.05891782363698897</v>
       </c>
       <c r="E84">
-        <v>0.01405644606694216</v>
+        <v>0.003787998521378323</v>
       </c>
       <c r="F84">
-        <v>-0.1979690468145865</v>
+        <v>-0.01475990273935677</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1212716919683214</v>
+        <v>-0.1376134804448893</v>
       </c>
       <c r="C85">
-        <v>-0.05576642349875944</v>
+        <v>-0.02547003208594636</v>
       </c>
       <c r="D85">
-        <v>0.007476326016543843</v>
+        <v>-0.02063590275664287</v>
       </c>
       <c r="E85">
-        <v>0.01617881724453394</v>
+        <v>-0.040204379838561</v>
       </c>
       <c r="F85">
-        <v>0.06016932678204394</v>
+        <v>-0.03946392544685238</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09028585370838778</v>
+        <v>-0.1005142547377709</v>
       </c>
       <c r="C86">
-        <v>-0.01460140011729259</v>
+        <v>0.006857028713744944</v>
       </c>
       <c r="D86">
-        <v>-0.02990077093338523</v>
+        <v>-0.0127065107792787</v>
       </c>
       <c r="E86">
-        <v>0.2669414024075273</v>
+        <v>-0.1319656176393398</v>
       </c>
       <c r="F86">
-        <v>-0.4651013051551974</v>
+        <v>0.8298305823980789</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1165912343298418</v>
+        <v>-0.1014259809573495</v>
       </c>
       <c r="C87">
-        <v>-0.06355316158034439</v>
+        <v>-0.02625435807513527</v>
       </c>
       <c r="D87">
-        <v>-0.02178268857824537</v>
+        <v>-0.06849252599355617</v>
       </c>
       <c r="E87">
-        <v>-0.06600180529186586</v>
+        <v>0.05369501930414107</v>
       </c>
       <c r="F87">
-        <v>-0.02952600202262035</v>
+        <v>-0.09332007934401303</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05832611550163778</v>
+        <v>-0.06076724164463613</v>
       </c>
       <c r="C88">
-        <v>-0.06004041049353147</v>
+        <v>-0.003500862252055014</v>
       </c>
       <c r="D88">
-        <v>0.03449739606351156</v>
+        <v>-0.0579013702367315</v>
       </c>
       <c r="E88">
-        <v>-0.02434956160017639</v>
+        <v>-0.02420796607147518</v>
       </c>
       <c r="F88">
-        <v>0.02194297811602262</v>
+        <v>-0.006951992789974719</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2323401127906979</v>
+        <v>-0.1318393435850859</v>
       </c>
       <c r="C89">
-        <v>0.3699567171573277</v>
+        <v>-0.00445054369614053</v>
       </c>
       <c r="D89">
-        <v>-0.04743512952938758</v>
+        <v>0.2763976688902302</v>
       </c>
       <c r="E89">
-        <v>0.02837799223091933</v>
+        <v>0.0904014788269335</v>
       </c>
       <c r="F89">
-        <v>-0.01850111524932286</v>
+        <v>-0.03367385080036341</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1554530812791635</v>
+        <v>-0.141743785049644</v>
       </c>
       <c r="C90">
-        <v>0.2611286148138142</v>
+        <v>-0.02099094720859595</v>
       </c>
       <c r="D90">
-        <v>0.009461550471813079</v>
+        <v>0.2758846393906559</v>
       </c>
       <c r="E90">
-        <v>-0.01265361937411599</v>
+        <v>0.1027055279883179</v>
       </c>
       <c r="F90">
-        <v>0.01972942201844238</v>
+        <v>-0.03845283644708976</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07449034770717987</v>
+        <v>-0.1167105345754471</v>
       </c>
       <c r="C91">
-        <v>-0.06079192018708351</v>
+        <v>-0.01624860906633386</v>
       </c>
       <c r="D91">
-        <v>-0.005365185969225406</v>
+        <v>-0.002708360105803791</v>
       </c>
       <c r="E91">
-        <v>0.01780849046647934</v>
+        <v>-0.0584129287648452</v>
       </c>
       <c r="F91">
-        <v>-0.005123441658031391</v>
+        <v>0.03090727678029209</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1689805651804536</v>
+        <v>-0.1442827059228521</v>
       </c>
       <c r="C92">
-        <v>0.2961036144658956</v>
+        <v>-0.01225483014861267</v>
       </c>
       <c r="D92">
-        <v>-0.02898960315436743</v>
+        <v>0.3109946322499285</v>
       </c>
       <c r="E92">
-        <v>-0.05186839589820594</v>
+        <v>0.09866130645471058</v>
       </c>
       <c r="F92">
-        <v>-0.02169598269742275</v>
+        <v>-0.02987555438214803</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1715165310452481</v>
+        <v>-0.146175404524542</v>
       </c>
       <c r="C93">
-        <v>0.3053872983812658</v>
+        <v>-0.01769098823352635</v>
       </c>
       <c r="D93">
-        <v>0.03985995965283756</v>
+        <v>0.2802952968233114</v>
       </c>
       <c r="E93">
-        <v>-0.01317948306201793</v>
+        <v>0.06918670120257771</v>
       </c>
       <c r="F93">
-        <v>-0.001106601902096042</v>
+        <v>-0.02966226227214605</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1153160673386572</v>
+        <v>-0.133250631626246</v>
       </c>
       <c r="C94">
-        <v>-0.08485278372422884</v>
+        <v>-0.02345973693693939</v>
       </c>
       <c r="D94">
-        <v>-0.007642080357556276</v>
+        <v>-0.05154903115702322</v>
       </c>
       <c r="E94">
-        <v>0.01420519213035914</v>
+        <v>-0.06098718950174541</v>
       </c>
       <c r="F94">
-        <v>0.03894831076532845</v>
+        <v>-0.02509832867891237</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1426154226449944</v>
+        <v>-0.1274423288078654</v>
       </c>
       <c r="C95">
-        <v>-0.06110081560177297</v>
+        <v>-0.006299413902473699</v>
       </c>
       <c r="D95">
-        <v>-0.01763557600400462</v>
+        <v>-0.0884293330988104</v>
       </c>
       <c r="E95">
-        <v>-0.05099287962959924</v>
+        <v>-0.04036091079724113</v>
       </c>
       <c r="F95">
-        <v>-0.1091811807336035</v>
+        <v>0.008453674556884797</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0949563843302431</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9893721495297574</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01469591192148457</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06023939877336414</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05054231803619718</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1159136720306504</v>
+        <v>-0.1875728817560842</v>
       </c>
       <c r="C97">
-        <v>0.01650866819255421</v>
+        <v>0.01257403430575321</v>
       </c>
       <c r="D97">
-        <v>-0.01961563834084519</v>
+        <v>0.009502968407026151</v>
       </c>
       <c r="E97">
-        <v>-0.2847156032975575</v>
+        <v>-0.01364863786135239</v>
       </c>
       <c r="F97">
-        <v>0.207562635913009</v>
+        <v>0.165700812401428</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2564576865067602</v>
+        <v>-0.2079713799676692</v>
       </c>
       <c r="C98">
-        <v>-0.125236132617743</v>
+        <v>-0.007409929073278521</v>
       </c>
       <c r="D98">
-        <v>-0.05389804369091776</v>
+        <v>-0.01681501908777695</v>
       </c>
       <c r="E98">
-        <v>0.2591358487212338</v>
+        <v>0.08623998113911208</v>
       </c>
       <c r="F98">
-        <v>0.06868717562185045</v>
+        <v>0.1440165636460183</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07431730940673029</v>
+        <v>-0.05765643465681683</v>
       </c>
       <c r="C99">
-        <v>-0.05687279371720105</v>
+        <v>0.003279393552926247</v>
       </c>
       <c r="D99">
-        <v>-0.01365977188605311</v>
+        <v>-0.03252883058681823</v>
       </c>
       <c r="E99">
-        <v>0.04137426797896369</v>
+        <v>-0.0265393327810507</v>
       </c>
       <c r="F99">
-        <v>0.01119532569228026</v>
+        <v>-0.003746268604530438</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1226670928039509</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04794084476029037</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.320506699378366</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.907879124592041</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.06025024098327702</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04283828920404572</v>
+        <v>-0.02730763626853405</v>
       </c>
       <c r="C101">
-        <v>-0.0268320658837585</v>
+        <v>-0.009263621633988278</v>
       </c>
       <c r="D101">
-        <v>0.005961375705133293</v>
+        <v>-0.02518688858620945</v>
       </c>
       <c r="E101">
-        <v>-0.03956400009931806</v>
+        <v>-0.008606842673614255</v>
       </c>
       <c r="F101">
-        <v>-0.01434426901803429</v>
+        <v>0.009443164835431259</v>
       </c>
     </row>
     <row r="102" spans="1:6">
